--- a/portfolio-optimization/results/portfolio_returns_last3y.xlsx
+++ b/portfolio-optimization/results/portfolio_returns_last3y.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B672"/>
+  <dimension ref="A1:B671"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,5370 +453,5362 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44725</v>
+        <v>44726</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.01192042473866912</v>
+        <v>-0.001134182970900334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44726</v>
+        <v>44727</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.001193680761417031</v>
+        <v>0.001873503445582209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44727</v>
+        <v>44728</v>
       </c>
       <c r="B4" t="n">
-        <v>0.001906153707059154</v>
+        <v>-0.0173466404714829</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44728</v>
+        <v>44729</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.01736174815137719</v>
+        <v>0.00589919065880766</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44729</v>
+        <v>44733</v>
       </c>
       <c r="B6" t="n">
-        <v>0.00592735447697449</v>
+        <v>0.006083035142586702</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44733</v>
+        <v>44734</v>
       </c>
       <c r="B7" t="n">
-        <v>0.00613938187081613</v>
+        <v>0.0009410023534283878</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44734</v>
+        <v>44736</v>
       </c>
       <c r="B8" t="n">
-        <v>0.001026193910985897</v>
+        <v>0.01343077668123556</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44736</v>
+        <v>44739</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01360825085113877</v>
+        <v>0.003972127880210023</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44739</v>
+        <v>44740</v>
       </c>
       <c r="B10" t="n">
-        <v>0.003940620956439392</v>
+        <v>0.0002549262022520406</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44740</v>
+        <v>44741</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0001500796997423825</v>
+        <v>-0.002781978215698568</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44741</v>
+        <v>44742</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.00277895069149013</v>
+        <v>-0.006999644181100734</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44742</v>
+        <v>44747</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.006979388181764128</v>
+        <v>0.0003329285435499137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44747</v>
+        <v>44748</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0003535273084571416</v>
+        <v>0.004690171555062558</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44748</v>
+        <v>44749</v>
       </c>
       <c r="B15" t="n">
-        <v>0.004812408311941779</v>
+        <v>0.002035356911491961</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="B16" t="n">
-        <v>0.002033671409038942</v>
+        <v>0.002387511787398515</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44750</v>
+        <v>44753</v>
       </c>
       <c r="B17" t="n">
-        <v>0.002341486747612594</v>
+        <v>0.0006024328866094779</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44753</v>
+        <v>44754</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0006238910336482347</v>
+        <v>-0.001454844388221986</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44754</v>
+        <v>44755</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.001446366837248172</v>
+        <v>-0.005956080833407294</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.005957334575835097</v>
+        <v>-0.005184021902108457</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44756</v>
+        <v>44757</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.005246287561334891</v>
+        <v>0.007625664699303729</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44757</v>
+        <v>44760</v>
       </c>
       <c r="B22" t="n">
-        <v>0.007763487714402403</v>
+        <v>-0.0005640062707228869</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44760</v>
+        <v>44761</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.0006180022104630302</v>
+        <v>0.002615223972341251</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44761</v>
+        <v>44762</v>
       </c>
       <c r="B24" t="n">
-        <v>0.002692088328016824</v>
+        <v>0.004086248434774663</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44762</v>
+        <v>44763</v>
       </c>
       <c r="B25" t="n">
-        <v>0.004007957858116086</v>
+        <v>0.002059311468757668</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44763</v>
+        <v>44764</v>
       </c>
       <c r="B26" t="n">
-        <v>0.002066485526568807</v>
+        <v>0.002947521914790912</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44764</v>
+        <v>44767</v>
       </c>
       <c r="B27" t="n">
-        <v>0.002972570410619748</v>
+        <v>-0.005158040386096193</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44767</v>
+        <v>44768</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.005137724136332917</v>
+        <v>-0.002342523114668836</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44768</v>
+        <v>44769</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.002418724853020443</v>
+        <v>0.002713895186689525</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44769</v>
+        <v>44770</v>
       </c>
       <c r="B30" t="n">
-        <v>0.002747709407276564</v>
+        <v>0.008961537502181722</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44770</v>
+        <v>44771</v>
       </c>
       <c r="B31" t="n">
-        <v>0.008958358108931554</v>
+        <v>0.004163015100948188</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44771</v>
+        <v>44775</v>
       </c>
       <c r="B32" t="n">
-        <v>0.004221185409316013</v>
+        <v>-0.0006888795767537815</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44775</v>
+        <v>44776</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.0006387579054717995</v>
+        <v>0.002870918440737911</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44776</v>
+        <v>44777</v>
       </c>
       <c r="B34" t="n">
-        <v>0.002878651508939374</v>
+        <v>0.005748635963448556</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44777</v>
+        <v>44778</v>
       </c>
       <c r="B35" t="n">
-        <v>0.005749241577607747</v>
+        <v>-0.001107204878869807</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44778</v>
+        <v>44781</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.001202411454956654</v>
+        <v>0.004845548574995775</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44781</v>
+        <v>44782</v>
       </c>
       <c r="B37" t="n">
-        <v>0.00485093606261946</v>
+        <v>-0.001138256493631731</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44782</v>
+        <v>44783</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.001169651451175156</v>
+        <v>0.001314391090430435</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44783</v>
+        <v>44784</v>
       </c>
       <c r="B39" t="n">
-        <v>0.001361783358983122</v>
+        <v>0.001904219258232526</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44784</v>
+        <v>44785</v>
       </c>
       <c r="B40" t="n">
-        <v>0.001876611661974267</v>
+        <v>0.004427191532324264</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44785</v>
+        <v>44789</v>
       </c>
       <c r="B41" t="n">
-        <v>0.004376200625659491</v>
+        <v>0.002972415089663646</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="B42" t="n">
-        <v>0.002944815300646194</v>
+        <v>-0.002403253918882246</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.002380692621469911</v>
+        <v>0.003482607252175284</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="B44" t="n">
-        <v>0.003516263370807318</v>
+        <v>0.001742563064477197</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44792</v>
+        <v>44795</v>
       </c>
       <c r="B45" t="n">
-        <v>0.001696367554938448</v>
+        <v>-0.007165562778660759</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44795</v>
+        <v>44796</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.007226516457098783</v>
+        <v>-0.005564655451566979</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.005626790029731039</v>
+        <v>0.003535674636298195</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44797</v>
+        <v>44798</v>
       </c>
       <c r="B48" t="n">
-        <v>0.003581623369236004</v>
+        <v>0.0004375761930306561</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44798</v>
+        <v>44799</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0004074551650179839</v>
+        <v>-0.005784079696134606</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44799</v>
+        <v>44803</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.005850759767441104</v>
+        <v>-0.007967931922679439</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.008029040949992955</v>
+        <v>-0.001952023311383105</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.001986313387445475</v>
+        <v>-0.01001805915450094</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.01008672458284104</v>
+        <v>0.01180779990768824</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44806</v>
+        <v>44810</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01194202845128103</v>
+        <v>-0.008093875133862864</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44810</v>
+        <v>44811</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.008179460039915192</v>
+        <v>0.005352478528352115</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44811</v>
+        <v>44812</v>
       </c>
       <c r="B56" t="n">
-        <v>0.005411045323546047</v>
+        <v>0.003741351799202488</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44812</v>
+        <v>44813</v>
       </c>
       <c r="B57" t="n">
-        <v>0.003780794278759077</v>
+        <v>0.004405275635570822</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44813</v>
+        <v>44817</v>
       </c>
       <c r="B58" t="n">
-        <v>0.004451529458759132</v>
+        <v>-0.004014917339828281</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.004066015726144747</v>
+        <v>-0.008082873525048353</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44818</v>
+        <v>44819</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.008116183953395029</v>
+        <v>-0.005318931004928777</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44819</v>
+        <v>44820</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.005328053913706983</v>
+        <v>-0.002879732884812387</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44820</v>
+        <v>44824</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.002910000456290802</v>
+        <v>-0.002852098128887765</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.002934189269973139</v>
+        <v>0.004693863940067864</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44825</v>
+        <v>44826</v>
       </c>
       <c r="B64" t="n">
-        <v>0.00469930012758585</v>
+        <v>-0.009751244252928596</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.009810766121000548</v>
+        <v>0.00468991116706986</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44827</v>
+        <v>44830</v>
       </c>
       <c r="B66" t="n">
-        <v>0.004650851951944779</v>
+        <v>0.005751074640571816</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44830</v>
+        <v>44831</v>
       </c>
       <c r="B67" t="n">
-        <v>0.005740873597887931</v>
+        <v>-0.003519782525078971</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.00346985064090958</v>
+        <v>0.002056863496754465</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="B69" t="n">
-        <v>0.002100139765980279</v>
+        <v>-0.01734744274616626</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.01738281594659447</v>
+        <v>-0.0008590944332603517</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44834</v>
+        <v>44837</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.000720081318590539</v>
+        <v>-0.005091472843454521</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44837</v>
+        <v>44839</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.005040758381243391</v>
+        <v>0.01555203650097513</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44839</v>
+        <v>44840</v>
       </c>
       <c r="B73" t="n">
-        <v>0.01549942976125982</v>
+        <v>0.005541417692239882</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44840</v>
+        <v>44841</v>
       </c>
       <c r="B74" t="n">
-        <v>0.005506100427045486</v>
+        <v>-0.01045504556852613</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44841</v>
+        <v>44844</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.01054264477414181</v>
+        <v>-0.007233993883097473</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44844</v>
+        <v>44845</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.007252187564288399</v>
+        <v>-0.00497576103722226</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44845</v>
+        <v>44846</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.004962478764453314</v>
+        <v>-0.001049602386505125</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44846</v>
+        <v>44847</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.001080891144808322</v>
+        <v>-0.01214718285394888</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.01215379191207998</v>
+        <v>0.007651387844471733</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44848</v>
+        <v>44851</v>
       </c>
       <c r="B80" t="n">
-        <v>0.007723458135402178</v>
+        <v>0.0009113567589641615</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44851</v>
+        <v>44852</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0009696607467455198</v>
+        <v>0.007158501476359911</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44852</v>
+        <v>44853</v>
       </c>
       <c r="B82" t="n">
-        <v>0.007167759485401798</v>
+        <v>-0.001546684179487848</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44853</v>
+        <v>44854</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.001578747302726886</v>
+        <v>0.001531979450829259</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44854</v>
+        <v>44855</v>
       </c>
       <c r="B84" t="n">
-        <v>0.001480996591731004</v>
+        <v>-6.688328117307289e-05</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44855</v>
+        <v>44858</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.0001042562217062272</v>
+        <v>0.006759906786874181</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44858</v>
+        <v>44859</v>
       </c>
       <c r="B86" t="n">
-        <v>0.006963243808239442</v>
+        <v>0.001589326186116842</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44859</v>
+        <v>44860</v>
       </c>
       <c r="B87" t="n">
-        <v>0.001695018333567316</v>
+        <v>0.0006782170283543266</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0007709360600454999</v>
+        <v>-0.00553818390440824</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44861</v>
+        <v>44862</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.005612884770580528</v>
+        <v>0.002091313117060186</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44862</v>
+        <v>44865</v>
       </c>
       <c r="B90" t="n">
-        <v>0.002114296180873754</v>
+        <v>0.004422198682268495</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44865</v>
+        <v>44867</v>
       </c>
       <c r="B91" t="n">
-        <v>0.00455813235700388</v>
+        <v>-0.001483595465571036</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44867</v>
+        <v>44868</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.001658266611847365</v>
+        <v>-0.002528675971165292</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44868</v>
+        <v>44869</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.002530103437975415</v>
+        <v>0.007296181408917515</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44869</v>
+        <v>44872</v>
       </c>
       <c r="B94" t="n">
-        <v>0.007183446068832035</v>
+        <v>-0.00276995405590615</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44872</v>
+        <v>44873</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.002742837870359847</v>
+        <v>0.01029862282707255</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44873</v>
+        <v>44874</v>
       </c>
       <c r="B96" t="n">
-        <v>0.01036691910956233</v>
+        <v>0.00420114445709054</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44874</v>
+        <v>44875</v>
       </c>
       <c r="B97" t="n">
-        <v>0.004242915560183707</v>
+        <v>0.009711425756463778</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44875</v>
+        <v>44876</v>
       </c>
       <c r="B98" t="n">
-        <v>0.009828536711638788</v>
+        <v>-0.002092103800036249</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44876</v>
+        <v>44879</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.002124088835751157</v>
+        <v>0.007894107789284982</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44879</v>
+        <v>44880</v>
       </c>
       <c r="B100" t="n">
-        <v>0.007939088045697599</v>
+        <v>-0.003697558902246371</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44880</v>
+        <v>44881</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.003755002684743473</v>
+        <v>-0.0002699614499145957</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44881</v>
+        <v>44882</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.0002998594602726359</v>
+        <v>-0.005268073621460057</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44882</v>
+        <v>44883</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.005185283133403681</v>
+        <v>0.0001620348921461297</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44883</v>
+        <v>44886</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0001598378894483007</v>
+        <v>0.001195481429457118</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44886</v>
+        <v>44887</v>
       </c>
       <c r="B105" t="n">
-        <v>0.001209209849296464</v>
+        <v>0.00114452766697167</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="B106" t="n">
-        <v>0.001148634132144769</v>
+        <v>-0.00121434367900126</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44888</v>
+        <v>44890</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.001222561861275063</v>
+        <v>0.0007725817853257715</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0007775039199076569</v>
+        <v>-0.00249933796610788</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.002444415943178132</v>
+        <v>-0.002785106618409233</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.002930255955645934</v>
+        <v>0.005755808090086393</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="B111" t="n">
-        <v>0.005633813494183365</v>
+        <v>0.004773079823576227</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44896</v>
+        <v>44897</v>
       </c>
       <c r="B112" t="n">
-        <v>0.004846430097289496</v>
+        <v>-0.003839018232368614</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44897</v>
+        <v>44900</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.003760891043035682</v>
+        <v>-0.0006427202408196306</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44900</v>
+        <v>44901</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.000700275789120569</v>
+        <v>-0.007780523248781093</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44901</v>
+        <v>44902</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.007770014123996478</v>
+        <v>-0.0009019270000195583</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44902</v>
+        <v>44903</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.0008741641811939521</v>
+        <v>0.00336989368021255</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44903</v>
+        <v>44904</v>
       </c>
       <c r="B117" t="n">
-        <v>0.003347781069376298</v>
+        <v>0.001459644826595076</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44904</v>
+        <v>44907</v>
       </c>
       <c r="B118" t="n">
-        <v>0.001445228316937894</v>
+        <v>-0.003141949123435296</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44907</v>
+        <v>44908</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.003153048983823042</v>
+        <v>0.008275921914209098</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44908</v>
+        <v>44909</v>
       </c>
       <c r="B120" t="n">
-        <v>0.008377366918016889</v>
+        <v>-0.0002572507544278152</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44909</v>
+        <v>44910</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.0002587254904983276</v>
+        <v>-0.01194134951928614</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44910</v>
+        <v>44911</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.01193524570969044</v>
+        <v>-0.00427665002830393</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44911</v>
+        <v>44914</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.004385431319735981</v>
+        <v>-0.0001848648425899814</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.0001858292450700276</v>
+        <v>0.0006998925924532585</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0006888372302535656</v>
+        <v>0.01173317121888524</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44916</v>
+        <v>44917</v>
       </c>
       <c r="B126" t="n">
-        <v>0.01178789446976748</v>
+        <v>-0.006354431968775603</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44917</v>
+        <v>44923</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.006468209602578798</v>
+        <v>-6.249472165151715e-05</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44923</v>
+        <v>44924</v>
       </c>
       <c r="B128" t="n">
-        <v>-3.928604906076275e-05</v>
+        <v>0.005221480532220886</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44924</v>
+        <v>44925</v>
       </c>
       <c r="B129" t="n">
-        <v>0.00529119024484281</v>
+        <v>-0.001465473598589901</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44925</v>
+        <v>44929</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.00153108518114564</v>
+        <v>0.003528548685012704</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44929</v>
+        <v>44930</v>
       </c>
       <c r="B131" t="n">
-        <v>0.003520113662119718</v>
+        <v>0.005908465835061555</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44930</v>
+        <v>44931</v>
       </c>
       <c r="B132" t="n">
-        <v>0.005972136695835942</v>
+        <v>-0.001556365483957794</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44931</v>
+        <v>44932</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.00160711192242146</v>
+        <v>0.005634966730009279</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44932</v>
+        <v>44935</v>
       </c>
       <c r="B134" t="n">
-        <v>0.005543658403007851</v>
+        <v>0.005990170583707891</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="B135" t="n">
-        <v>0.006069050100004677</v>
+        <v>-0.004980865160998119</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.004997507730632277</v>
+        <v>0.005460826825704776</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="B137" t="n">
-        <v>0.00546208896834946</v>
+        <v>0.004218061536471649</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44938</v>
+        <v>44939</v>
       </c>
       <c r="B138" t="n">
-        <v>0.004219834104582057</v>
+        <v>0.001725478241213036</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44939</v>
+        <v>44943</v>
       </c>
       <c r="B139" t="n">
-        <v>0.001685768158530185</v>
+        <v>0.0002108509944908658</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44943</v>
+        <v>44944</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0002181431973040011</v>
+        <v>-0.006070729307180407</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44944</v>
+        <v>44945</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.006088538889506987</v>
+        <v>-0.005702915779499881</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44945</v>
+        <v>44946</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.00569252213619633</v>
+        <v>0.004036755801127292</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44946</v>
+        <v>44952</v>
       </c>
       <c r="B143" t="n">
-        <v>0.003953543842949813</v>
+        <v>0.007597214963511156</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44952</v>
+        <v>44953</v>
       </c>
       <c r="B144" t="n">
-        <v>0.007545722212760063</v>
+        <v>0.002125775955000406</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44953</v>
+        <v>44956</v>
       </c>
       <c r="B145" t="n">
-        <v>0.002078175082739105</v>
+        <v>-0.001051333707794479</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44956</v>
+        <v>44957</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.0009504576828060816</v>
+        <v>0.001316200712163933</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44957</v>
+        <v>44958</v>
       </c>
       <c r="B147" t="n">
-        <v>0.001360933514126742</v>
+        <v>0.00315864910044094</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44958</v>
+        <v>44959</v>
       </c>
       <c r="B148" t="n">
-        <v>0.003121681769493588</v>
+        <v>0.01103475300145138</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44959</v>
+        <v>44960</v>
       </c>
       <c r="B149" t="n">
-        <v>0.01110610210103934</v>
+        <v>0.001524000826978633</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44960</v>
+        <v>44964</v>
       </c>
       <c r="B150" t="n">
-        <v>0.001584003022250851</v>
+        <v>-0.002815900241226013</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.002875851291004867</v>
+        <v>-0.0003518474487148569</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44965</v>
+        <v>44966</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.0003192888659418529</v>
+        <v>-0.002411597979516807</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.002399140649883595</v>
+        <v>-0.005063674715228204</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44967</v>
+        <v>44970</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.005044415681287648</v>
+        <v>0.003496309514932741</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44970</v>
+        <v>44971</v>
       </c>
       <c r="B155" t="n">
-        <v>0.003486319285598097</v>
+        <v>-0.002643896383260315</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.0026192812266183</v>
+        <v>0.006478446007489319</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="B157" t="n">
-        <v>0.006525316006062311</v>
+        <v>0.0004314047096882295</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44973</v>
+        <v>44974</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0004243410573839968</v>
+        <v>-0.003705849310039041</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44974</v>
+        <v>44978</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.003694362605272803</v>
+        <v>-0.007819508872323242</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44978</v>
+        <v>44979</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.007841716155874012</v>
+        <v>-0.0001013745815520476</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44979</v>
+        <v>44980</v>
       </c>
       <c r="B161" t="n">
-        <v>-2.689863296446158e-05</v>
+        <v>-0.0003567232803867522</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44980</v>
+        <v>44981</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.0004241236771847054</v>
+        <v>-0.001830107815619514</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44981</v>
+        <v>44984</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.001833756242486157</v>
+        <v>-0.0002966911249766826</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.0002265656376872389</v>
+        <v>-0.004463025548134695</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44985</v>
+        <v>44986</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.004476576852358234</v>
+        <v>0.002681283967489589</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="B166" t="n">
-        <v>0.002578190192791564</v>
+        <v>0.004392882204109954</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B167" t="n">
-        <v>0.004385687340527878</v>
+        <v>0.005912728360906809</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B168" t="n">
-        <v>0.00592315246128686</v>
+        <v>0.004054661604235985</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="B169" t="n">
-        <v>0.004016199808442742</v>
+        <v>-0.002679746080942322</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.002696266413609969</v>
+        <v>0.001369694291763637</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="B171" t="n">
-        <v>0.001373887216897861</v>
+        <v>-0.0009986824362353489</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.0009931506053881749</v>
+        <v>-0.009792053511555335</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44995</v>
+        <v>44998</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.009724965010193095</v>
+        <v>-0.001566069912205286</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.001613523204010587</v>
+        <v>0.003275769363420414</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="B175" t="n">
-        <v>0.003428291808023382</v>
+        <v>-0.0001506033566338297</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.0002696659028494446</v>
+        <v>0.005025500084899072</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45001</v>
+        <v>45005</v>
       </c>
       <c r="B177" t="n">
-        <v>0.005118735957193294</v>
+        <v>0.001593164711167616</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45005</v>
+        <v>45006</v>
       </c>
       <c r="B178" t="n">
-        <v>0.001650718163339169</v>
+        <v>0.003478287274105364</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45006</v>
+        <v>45007</v>
       </c>
       <c r="B179" t="n">
-        <v>0.003551792892125791</v>
+        <v>0.002254300694484273</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45007</v>
+        <v>45008</v>
       </c>
       <c r="B180" t="n">
-        <v>0.002223561527942804</v>
+        <v>0.004178150425237421</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="B181" t="n">
-        <v>0.004148128432653722</v>
+        <v>-0.001828651779769654</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45009</v>
+        <v>45012</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.001840205312373302</v>
+        <v>-0.001299448224956084</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45012</v>
+        <v>45013</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.001262570394910564</v>
+        <v>-0.002059947650998642</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.002082021926240045</v>
+        <v>0.006777903901309938</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45014</v>
+        <v>45015</v>
       </c>
       <c r="B185" t="n">
-        <v>0.006784847318098254</v>
+        <v>0.003853590733876706</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="B186" t="n">
-        <v>0.003875654086740784</v>
+        <v>0.00447445302318788</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45016</v>
+        <v>45019</v>
       </c>
       <c r="B187" t="n">
-        <v>0.004509288139287831</v>
+        <v>0.0006663976458164392</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45019</v>
+        <v>45020</v>
       </c>
       <c r="B188" t="n">
-        <v>0.000645961582502837</v>
+        <v>0.0002335550923983269</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45020</v>
+        <v>45022</v>
       </c>
       <c r="B189" t="n">
-        <v>0.0002617774128218469</v>
+        <v>0.003092494276674879</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45022</v>
+        <v>45027</v>
       </c>
       <c r="B190" t="n">
-        <v>0.003192534235393298</v>
+        <v>0.001988039394406447</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45027</v>
+        <v>45028</v>
       </c>
       <c r="B191" t="n">
-        <v>0.001909220947019942</v>
+        <v>0.001391679566399237</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45028</v>
+        <v>45029</v>
       </c>
       <c r="B192" t="n">
-        <v>0.001360763946368286</v>
+        <v>0.003323181737709302</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45029</v>
+        <v>45030</v>
       </c>
       <c r="B193" t="n">
-        <v>0.003364366797520162</v>
+        <v>-0.0004226995003058151</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45030</v>
+        <v>45033</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.0004342617604371855</v>
+        <v>0.003006310835855221</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45033</v>
+        <v>45034</v>
       </c>
       <c r="B195" t="n">
-        <v>0.002945539663457246</v>
+        <v>0.001519375217440965</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="B196" t="n">
-        <v>0.001502255227988323</v>
+        <v>-0.003773872219277981</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45035</v>
+        <v>45036</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.003738347026247139</v>
+        <v>0.0009519301945692883</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45036</v>
+        <v>45037</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0009747815449751157</v>
+        <v>-0.0004436225479293326</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45037</v>
+        <v>45040</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.000395765744324437</v>
+        <v>-0.000931004795459453</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45040</v>
+        <v>45041</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.0008815741660595934</v>
+        <v>0.000759929538434429</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45041</v>
+        <v>45042</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0008025788354668717</v>
+        <v>-0.003686018591908797</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.003669293606950171</v>
+        <v>-0.0007758297768125299</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.0008330354874129271</v>
+        <v>0.001777107485722341</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45044</v>
+        <v>45048</v>
       </c>
       <c r="B204" t="n">
-        <v>0.001757357025913506</v>
+        <v>0.002746133130575822</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45048</v>
+        <v>45049</v>
       </c>
       <c r="B205" t="n">
-        <v>0.002711154261837909</v>
+        <v>0.0007171873536152253</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45049</v>
+        <v>45050</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0008114840660762133</v>
+        <v>-0.001973773391191498</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45050</v>
+        <v>45051</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.002027188206863144</v>
+        <v>-0.0005639907665411495</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45051</v>
+        <v>45056</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.0005532908720961211</v>
+        <v>0.001144457497819449</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="B209" t="n">
-        <v>0.001095203562197826</v>
+        <v>0.002792140757477826</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="B210" t="n">
-        <v>0.002831945032433983</v>
+        <v>0.001209075769491635</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45058</v>
+        <v>45061</v>
       </c>
       <c r="B211" t="n">
-        <v>0.001218943473786509</v>
+        <v>0.0006439236336637019</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="B212" t="n">
-        <v>0.0005985001062194184</v>
+        <v>-0.001008602448690522</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="B213" t="n">
-        <v>-0.0009719939619421189</v>
+        <v>-0.004489190472946502</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45063</v>
+        <v>45065</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.004554335377968021</v>
+        <v>0.007216734968041391</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45065</v>
+        <v>45068</v>
       </c>
       <c r="B215" t="n">
-        <v>0.007259531323490653</v>
+        <v>0.0009930299327689236</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45068</v>
+        <v>45069</v>
       </c>
       <c r="B216" t="n">
-        <v>0.00100977386308994</v>
+        <v>-0.004452518771301152</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45069</v>
+        <v>45070</v>
       </c>
       <c r="B217" t="n">
-        <v>-0.004514323454463185</v>
+        <v>-0.005102160559356543</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45070</v>
+        <v>45071</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.005122291811736424</v>
+        <v>0.001411673442234629</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45071</v>
+        <v>45076</v>
       </c>
       <c r="B219" t="n">
-        <v>0.00139766222374942</v>
+        <v>0.003084048534484152</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45076</v>
+        <v>45077</v>
       </c>
       <c r="B220" t="n">
-        <v>0.003051003387002291</v>
+        <v>-0.004405285181862017</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.004437756304619125</v>
+        <v>-0.0005300737592016106</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45078</v>
+        <v>45079</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.0004491024245356016</v>
+        <v>0.006624759834376366</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45079</v>
+        <v>45083</v>
       </c>
       <c r="B223" t="n">
-        <v>0.006617661994752288</v>
+        <v>0.001141652875726652</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="B224" t="n">
-        <v>0.001031209789531473</v>
+        <v>-0.003937616356905256</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.003984328766847672</v>
+        <v>-0.001756569501640904</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.001794411747730431</v>
+        <v>-0.0008639235192636854</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45086</v>
+        <v>45089</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.0009152885584133822</v>
+        <v>0.004514465321972529</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45089</v>
+        <v>45090</v>
       </c>
       <c r="B228" t="n">
-        <v>0.004543543642499825</v>
+        <v>-0.000289901784924813</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45090</v>
+        <v>45091</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.0003228549799139668</v>
+        <v>0.0004913054183832239</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="B230" t="n">
-        <v>0.0005360706399516876</v>
+        <v>0.001253199226524753</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="B231" t="n">
-        <v>0.001252684283730983</v>
+        <v>0.0005311489704506694</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45093</v>
+        <v>45097</v>
       </c>
       <c r="B232" t="n">
-        <v>0.0005390572139919867</v>
+        <v>-0.006934173975114939</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.00694212420598986</v>
+        <v>-0.001618647020923381</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45098</v>
+        <v>45103</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.001623685024623195</v>
+        <v>-0.00438548243014478</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="B235" t="n">
-        <v>-0.004358870201441465</v>
+        <v>-0.0004168795164084939</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.0004397881896956165</v>
+        <v>0.006826112789956425</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="B237" t="n">
-        <v>0.006868753814025847</v>
+        <v>0.0009332146051528078</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="B238" t="n">
-        <v>0.0009298415587988701</v>
+        <v>0.002886689553837846</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B239" t="n">
-        <v>0.002890854860805364</v>
+        <v>0.001612578607507542</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45110</v>
+        <v>45112</v>
       </c>
       <c r="B240" t="n">
-        <v>0.001565880220582449</v>
+        <v>-0.004450588362115959</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.004469357138390298</v>
+        <v>-0.00876115045669212</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45113</v>
+        <v>45114</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.008777539360316156</v>
+        <v>-0.001956273700357973</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45114</v>
+        <v>45117</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.001926509455435393</v>
+        <v>-0.001395185810974274</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45117</v>
+        <v>45118</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.001417907439901254</v>
+        <v>-0.0006568515849061716</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.0006522317008372497</v>
+        <v>0.006781352750264725</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45119</v>
+        <v>45120</v>
       </c>
       <c r="B246" t="n">
-        <v>0.006847566702868403</v>
+        <v>4.440776466054495e-05</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="B247" t="n">
-        <v>4.60401244479075e-05</v>
+        <v>0.002805514163191505</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45121</v>
+        <v>45124</v>
       </c>
       <c r="B248" t="n">
-        <v>0.002755589126033648</v>
+        <v>0.0003407002683926645</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45124</v>
+        <v>45125</v>
       </c>
       <c r="B249" t="n">
-        <v>0.000380493340386876</v>
+        <v>0.004694397514370339</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="B250" t="n">
-        <v>0.004755370980371743</v>
+        <v>0.009855239509345033</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="B251" t="n">
-        <v>0.009854506104192071</v>
+        <v>0.0001426486487349453</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="B252" t="n">
-        <v>0.0001742916431847809</v>
+        <v>0.0005640182749666619</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45128</v>
+        <v>45131</v>
       </c>
       <c r="B253" t="n">
-        <v>0.0005507446119880115</v>
+        <v>-0.0004028056789764912</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45131</v>
+        <v>45132</v>
       </c>
       <c r="B254" t="n">
-        <v>-0.0004096117133010065</v>
+        <v>0.001039075310667287</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="B255" t="n">
-        <v>0.0009279651843709628</v>
+        <v>-0.004595077077192525</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.004561884382763585</v>
+        <v>0.003647025701242008</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>45134</v>
+        <v>45135</v>
       </c>
       <c r="B257" t="n">
-        <v>0.003658027088365313</v>
+        <v>0.00166501848795697</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>45135</v>
+        <v>45138</v>
       </c>
       <c r="B258" t="n">
-        <v>0.00162134795543771</v>
+        <v>0.0003082467887860122</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>45138</v>
+        <v>45139</v>
       </c>
       <c r="B259" t="n">
-        <v>0.0002474042060249743</v>
+        <v>8.340916203135491e-05</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="B260" t="n">
-        <v>6.487961715785509e-05</v>
+        <v>-0.007053445597669151</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.006995928494759569</v>
+        <v>-0.003250259241766497</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.003287563384281485</v>
+        <v>-0.001167881358000131</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>45142</v>
+        <v>45146</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.001160640735397479</v>
+        <v>-0.004848999480090902</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.004814844897898997</v>
+        <v>0.0003334359004205901</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>45147</v>
+        <v>45148</v>
       </c>
       <c r="B265" t="n">
-        <v>0.0003717956086325217</v>
+        <v>0.003971990635622676</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>45148</v>
+        <v>45149</v>
       </c>
       <c r="B266" t="n">
-        <v>0.004066417794018567</v>
+        <v>-0.004810400518579236</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>45149</v>
+        <v>45152</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.004869780769382971</v>
+        <v>0.001350499243254086</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>45152</v>
+        <v>45154</v>
       </c>
       <c r="B268" t="n">
-        <v>0.001384266368451584</v>
+        <v>-0.007884498548151347</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>45154</v>
+        <v>45155</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.007876376019157676</v>
+        <v>-0.006512859354987069</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>45155</v>
+        <v>45156</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.006580265137320733</v>
+        <v>-0.002666203227301869</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>45156</v>
+        <v>45159</v>
       </c>
       <c r="B271" t="n">
-        <v>-0.002652586889835379</v>
+        <v>0.001337876356920243</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>45159</v>
+        <v>45160</v>
       </c>
       <c r="B272" t="n">
-        <v>0.001371543581619137</v>
+        <v>0.004404233941218163</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>45160</v>
+        <v>45161</v>
       </c>
       <c r="B273" t="n">
-        <v>0.004387658249610436</v>
+        <v>0.008420033566778822</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>45161</v>
+        <v>45162</v>
       </c>
       <c r="B274" t="n">
-        <v>0.008373204309058956</v>
+        <v>0.002084985209968813</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>45162</v>
+        <v>45163</v>
       </c>
       <c r="B275" t="n">
-        <v>0.002040186678820328</v>
+        <v>-0.0005335659257482941</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>45163</v>
+        <v>45167</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.0005157340475333362</v>
+        <v>0.01254551154509951</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>45167</v>
+        <v>45168</v>
       </c>
       <c r="B277" t="n">
-        <v>0.0125352048672177</v>
+        <v>-0.0004180891558784043</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>45168</v>
+        <v>45169</v>
       </c>
       <c r="B278" t="n">
-        <v>-0.0004201586743227024</v>
+        <v>0.0009103877746956011</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>45169</v>
+        <v>45170</v>
       </c>
       <c r="B279" t="n">
-        <v>0.0009188119460702159</v>
+        <v>0.001183977936336666</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="B280" t="n">
-        <v>0.001172909181349768</v>
+        <v>-0.0009467609574482814</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="B281" t="n">
-        <v>-0.001060293952783046</v>
+        <v>-0.001366422723879043</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>45175</v>
+        <v>45176</v>
       </c>
       <c r="B282" t="n">
-        <v>-0.00134116583399909</v>
+        <v>7.378331867337806e-05</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>45176</v>
+        <v>45177</v>
       </c>
       <c r="B283" t="n">
-        <v>7.677282018729191e-05</v>
+        <v>0.002403358967219711</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>45177</v>
+        <v>45180</v>
       </c>
       <c r="B284" t="n">
-        <v>0.002452626457083692</v>
+        <v>-0.0006711486208360607</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.0006793886127545589</v>
+        <v>-0.0005510862513378326</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="B286" t="n">
-        <v>-0.0005588973088823513</v>
+        <v>-0.0007791644207965857</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>45182</v>
+        <v>45183</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.0008053529725398016</v>
+        <v>0.006767674083450637</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="B288" t="n">
-        <v>0.006778598083704616</v>
+        <v>0.001884622139616589</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>45184</v>
+        <v>45187</v>
       </c>
       <c r="B289" t="n">
-        <v>0.001846699875438298</v>
+        <v>-0.001912584154562483</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>45187</v>
+        <v>45188</v>
       </c>
       <c r="B290" t="n">
-        <v>-0.00190806915162454</v>
+        <v>-0.0003678672823376464</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="B291" t="n">
-        <v>-0.0003752407646676272</v>
+        <v>0.005402053074676184</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="B292" t="n">
-        <v>0.005446102460255701</v>
+        <v>-0.008177576356054282</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>45190</v>
+        <v>45191</v>
       </c>
       <c r="B293" t="n">
-        <v>-0.008226496948471326</v>
+        <v>0.003193611406632773</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>45191</v>
+        <v>45194</v>
       </c>
       <c r="B294" t="n">
-        <v>0.003148323565739676</v>
+        <v>-0.003679460065699557</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>45194</v>
+        <v>45195</v>
       </c>
       <c r="B295" t="n">
-        <v>-0.003716690768609871</v>
+        <v>-0.004785882503112729</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>45195</v>
+        <v>45196</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.004776482893145115</v>
+        <v>-0.003746069643867347</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>45196</v>
+        <v>45197</v>
       </c>
       <c r="B297" t="n">
-        <v>-0.003803786975618469</v>
+        <v>-0.003909079216640218</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>45197</v>
+        <v>45198</v>
       </c>
       <c r="B298" t="n">
-        <v>-0.003857919440183401</v>
+        <v>0.003074461984284515</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>45198</v>
+        <v>45202</v>
       </c>
       <c r="B299" t="n">
-        <v>0.003087071164589201</v>
+        <v>-0.008353029631118617</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="B300" t="n">
-        <v>-0.00845949552797854</v>
+        <v>-0.002215530785101122</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.002159827184758521</v>
+        <v>-0.0001998130859935446</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.0001435748396638215</v>
+        <v>0.003016933060095284</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>45205</v>
+        <v>45208</v>
       </c>
       <c r="B303" t="n">
-        <v>0.003027937055933559</v>
+        <v>0.005325181778113077</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="B304" t="n">
-        <v>0.005320387972009583</v>
+        <v>0.00762872715955957</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>45209</v>
+        <v>45210</v>
       </c>
       <c r="B305" t="n">
-        <v>0.00768790741866694</v>
+        <v>0.0002683689081992393</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>45210</v>
+        <v>45211</v>
       </c>
       <c r="B306" t="n">
-        <v>0.0002485073320816419</v>
+        <v>0.005278225120713445</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>45211</v>
+        <v>45212</v>
       </c>
       <c r="B307" t="n">
-        <v>0.005250980988098949</v>
+        <v>0.003472447560679265</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>45212</v>
+        <v>45215</v>
       </c>
       <c r="B308" t="n">
-        <v>0.003489523982475662</v>
+        <v>0.0007468691057137796</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>45215</v>
+        <v>45216</v>
       </c>
       <c r="B309" t="n">
-        <v>0.000737663868175681</v>
+        <v>-0.0004299149450587266</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>45216</v>
+        <v>45217</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.0004327782882205866</v>
+        <v>-1.500345194012246e-06</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>45217</v>
+        <v>45218</v>
       </c>
       <c r="B311" t="n">
-        <v>3.100736919625169e-06</v>
+        <v>-0.002284502626209508</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>45218</v>
+        <v>45219</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.002293082159767779</v>
+        <v>-0.003424919419284059</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>45219</v>
+        <v>45223</v>
       </c>
       <c r="B313" t="n">
-        <v>-0.003417263191683878</v>
+        <v>-0.003354790790825388</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>45223</v>
+        <v>45224</v>
       </c>
       <c r="B314" t="n">
-        <v>-0.003273918329458542</v>
+        <v>0.004592704195196121</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>45224</v>
+        <v>45225</v>
       </c>
       <c r="B315" t="n">
-        <v>0.004551615781590854</v>
+        <v>-0.005112346478983421</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>45225</v>
+        <v>45226</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.005113902142015552</v>
+        <v>-0.001481776651892688</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>45226</v>
+        <v>45230</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.001548234408217256</v>
+        <v>0.0044397555232152</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>45230</v>
+        <v>45232</v>
       </c>
       <c r="B318" t="n">
-        <v>0.004536840986172311</v>
+        <v>0.01122780343644439</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>45232</v>
+        <v>45233</v>
       </c>
       <c r="B319" t="n">
-        <v>0.01125261876986249</v>
+        <v>-0.001241787853846945</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>45233</v>
+        <v>45236</v>
       </c>
       <c r="B320" t="n">
-        <v>-0.001327385776435225</v>
+        <v>-0.0006219634311383556</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>45236</v>
+        <v>45237</v>
       </c>
       <c r="B321" t="n">
-        <v>-0.0006458647869040026</v>
+        <v>0.003698213570915606</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>45237</v>
+        <v>45238</v>
       </c>
       <c r="B322" t="n">
-        <v>0.003700599053330569</v>
+        <v>-0.0008877996817503019</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>45238</v>
+        <v>45239</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.0008516733812794128</v>
+        <v>0.004366310679258519</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>45239</v>
+        <v>45240</v>
       </c>
       <c r="B324" t="n">
-        <v>0.004413097733250732</v>
+        <v>-0.001564340735607381</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>45240</v>
+        <v>45243</v>
       </c>
       <c r="B325" t="n">
-        <v>-0.001581416528037013</v>
+        <v>0.0018259320316728</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="B326" t="n">
-        <v>0.001821505709812162</v>
+        <v>0.001410012517274905</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
       <c r="B327" t="n">
-        <v>0.001427670827445518</v>
+        <v>0.002910920993176732</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>45245</v>
+        <v>45246</v>
       </c>
       <c r="B328" t="n">
-        <v>0.002859466120910274</v>
+        <v>0.00130427036369785</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45246</v>
+        <v>45247</v>
       </c>
       <c r="B329" t="n">
-        <v>0.00128456509059618</v>
+        <v>0.001771125946878394</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45247</v>
+        <v>45250</v>
       </c>
       <c r="B330" t="n">
-        <v>0.001843145587391874</v>
+        <v>-0.001271948196983089</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45250</v>
+        <v>45251</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.001276032866622343</v>
+        <v>0.0008326018673237505</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45251</v>
+        <v>45252</v>
       </c>
       <c r="B332" t="n">
-        <v>0.0008333450173344209</v>
+        <v>0.003857717603638992</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45252</v>
+        <v>45254</v>
       </c>
       <c r="B333" t="n">
-        <v>0.003930239420659217</v>
+        <v>-0.003273480994670825</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45254</v>
+        <v>45257</v>
       </c>
       <c r="B334" t="n">
-        <v>-0.0032403338535407</v>
+        <v>0.0003401015178479496</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="B335" t="n">
-        <v>0.0003652057622754662</v>
+        <v>-0.0001066342009772016</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45258</v>
+        <v>45259</v>
       </c>
       <c r="B336" t="n">
-        <v>-0.0001668476513867994</v>
+        <v>0.0005888269400504281</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45259</v>
+        <v>45260</v>
       </c>
       <c r="B337" t="n">
-        <v>0.0006000164182328697</v>
+        <v>0.001311836161049961</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45260</v>
+        <v>45261</v>
       </c>
       <c r="B338" t="n">
-        <v>0.001322405485349845</v>
+        <v>0.002498835279761183</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45261</v>
+        <v>45264</v>
       </c>
       <c r="B339" t="n">
-        <v>0.002501901787802191</v>
+        <v>-0.002911049749338291</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.002888175205539825</v>
+        <v>0.0005481903887495148</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45265</v>
+        <v>45266</v>
       </c>
       <c r="B341" t="n">
-        <v>0.0006000860894018346</v>
+        <v>0.003553024941217043</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="B342" t="n">
-        <v>0.003529833932242428</v>
+        <v>-0.000200589930676072</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="B343" t="n">
-        <v>-0.0001843104066039976</v>
+        <v>0.0008353493591901059</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45268</v>
+        <v>45271</v>
       </c>
       <c r="B344" t="n">
-        <v>0.0008513325532736831</v>
+        <v>-0.0005252914474434827</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="B345" t="n">
-        <v>-0.0005113365392438423</v>
+        <v>0.003038677053218494</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45272</v>
+        <v>45273</v>
       </c>
       <c r="B346" t="n">
-        <v>0.003011687799037344</v>
+        <v>0.003097238348881041</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>45273</v>
+        <v>45274</v>
       </c>
       <c r="B347" t="n">
-        <v>0.003131527719481122</v>
+        <v>-0.0006040338198339242</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45274</v>
+        <v>45275</v>
       </c>
       <c r="B348" t="n">
-        <v>-0.000630123119435545</v>
+        <v>-2.46326613693689e-07</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>45275</v>
+        <v>45278</v>
       </c>
       <c r="B349" t="n">
-        <v>-4.690163642300318e-05</v>
+        <v>0.001307712101819364</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45278</v>
+        <v>45279</v>
       </c>
       <c r="B350" t="n">
-        <v>0.001308094861463325</v>
+        <v>-0.0001363089091840165</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="B351" t="n">
-        <v>-0.0001243555793034124</v>
+        <v>0.002465323677207124</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45280</v>
+        <v>45281</v>
       </c>
       <c r="B352" t="n">
-        <v>0.002455738699787685</v>
+        <v>-0.0003920404709092775</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45281</v>
+        <v>45287</v>
       </c>
       <c r="B353" t="n">
-        <v>-0.0003847641175518386</v>
+        <v>0.004350314240806295</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45287</v>
+        <v>45288</v>
       </c>
       <c r="B354" t="n">
-        <v>0.004293217599630732</v>
+        <v>0.003151660745102565</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45288</v>
+        <v>45289</v>
       </c>
       <c r="B355" t="n">
-        <v>0.00311489270327054</v>
+        <v>-0.0001338487435577166</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45289</v>
+        <v>45293</v>
       </c>
       <c r="B356" t="n">
-        <v>-0.0001799529764785675</v>
+        <v>8.028682692616095e-05</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="B357" t="n">
-        <v>0.0001126851586001206</v>
+        <v>-0.005582672741496993</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B358" t="n">
-        <v>-0.005569424112857279</v>
+        <v>0.001737311858377961</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B359" t="n">
-        <v>0.001775586970202253</v>
+        <v>-0.002371213755282301</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45296</v>
+        <v>45299</v>
       </c>
       <c r="B360" t="n">
-        <v>-0.002394487894365527</v>
+        <v>-0.001041955321510655</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="B361" t="n">
-        <v>-0.0009952427335197162</v>
+        <v>0.003066559484579525</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45300</v>
+        <v>45301</v>
       </c>
       <c r="B362" t="n">
-        <v>0.003109393719383201</v>
+        <v>0.0009469379841396252</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="B363" t="n">
-        <v>0.0009648190281544321</v>
+        <v>-0.002141855660026113</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45302</v>
+        <v>45303</v>
       </c>
       <c r="B364" t="n">
-        <v>-0.002156672512633545</v>
+        <v>0.007815884466809113</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45303</v>
+        <v>45307</v>
       </c>
       <c r="B365" t="n">
-        <v>0.007839783631377209</v>
+        <v>0.001958904747790666</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45307</v>
+        <v>45308</v>
       </c>
       <c r="B366" t="n">
-        <v>0.001934381210990918</v>
+        <v>-0.00787555318678982</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="B367" t="n">
-        <v>-0.007802732063132123</v>
+        <v>0.002528106677001889</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="B368" t="n">
-        <v>0.002477269326175705</v>
+        <v>0.004561852606567426</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>45310</v>
+        <v>45313</v>
       </c>
       <c r="B369" t="n">
-        <v>0.004542968410269004</v>
+        <v>0.002546333651210809</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>45313</v>
+        <v>45314</v>
       </c>
       <c r="B370" t="n">
-        <v>0.002605425934796712</v>
+        <v>-0.0002056886573789087</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>45314</v>
+        <v>45315</v>
       </c>
       <c r="B371" t="n">
-        <v>-0.0002524590124053795</v>
+        <v>0.00224945232149863</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>45315</v>
+        <v>45316</v>
       </c>
       <c r="B372" t="n">
-        <v>0.002173150535999251</v>
+        <v>0.002581749826868036</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>45316</v>
+        <v>45317</v>
       </c>
       <c r="B373" t="n">
-        <v>0.0025348019481866</v>
+        <v>0.0002528875762753584</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>45317</v>
+        <v>45320</v>
       </c>
       <c r="B374" t="n">
-        <v>0.000299137159858345</v>
+        <v>0.001540764824425068</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>45320</v>
+        <v>45321</v>
       </c>
       <c r="B375" t="n">
-        <v>0.001453940478355253</v>
+        <v>0.002619306808236096</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>45321</v>
+        <v>45322</v>
       </c>
       <c r="B376" t="n">
-        <v>0.002683600163170134</v>
+        <v>-0.00222489790659244</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>45322</v>
+        <v>45323</v>
       </c>
       <c r="B377" t="n">
-        <v>-0.002225903161374714</v>
+        <v>0.0005402290211588986</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B378" t="n">
-        <v>0.0004464311489545524</v>
+        <v>0.003191740952578997</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>45324</v>
+        <v>45328</v>
       </c>
       <c r="B379" t="n">
-        <v>0.003153362345221505</v>
+        <v>0.003295291134102303</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>45328</v>
+        <v>45329</v>
       </c>
       <c r="B380" t="n">
-        <v>0.003241061322392346</v>
+        <v>0.0006584297743356807</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>45329</v>
+        <v>45336</v>
       </c>
       <c r="B381" t="n">
-        <v>0.0006228154737071578</v>
+        <v>-0.004053449152074196</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B382" t="n">
-        <v>-0.00405002565103718</v>
+        <v>0.003047739955661744</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B383" t="n">
-        <v>0.003043652433380221</v>
+        <v>0.002925652023945871</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>45338</v>
+        <v>45342</v>
       </c>
       <c r="B384" t="n">
-        <v>0.002914457983977837</v>
+        <v>-0.000388572538438583</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>45342</v>
+        <v>45343</v>
       </c>
       <c r="B385" t="n">
-        <v>-0.0004289989280140626</v>
+        <v>-0.001338597745814965</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>45343</v>
+        <v>45344</v>
       </c>
       <c r="B386" t="n">
-        <v>-0.001337418458790725</v>
+        <v>0.007195140058281025</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B387" t="n">
-        <v>0.00717137590855359</v>
+        <v>0.003124294647436661</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B388" t="n">
-        <v>0.003150119265470067</v>
+        <v>-0.001484707696442067</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B389" t="n">
-        <v>-0.001459637632856744</v>
+        <v>-0.001087329997606962</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B390" t="n">
-        <v>-0.001114055723580283</v>
+        <v>1.29662839400073e-05</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B391" t="n">
-        <v>-1.544243052973172e-08</v>
+        <v>0.002040356390146924</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B392" t="n">
-        <v>0.001993953242271778</v>
+        <v>0.005886312322391286</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>45352</v>
+        <v>45355</v>
       </c>
       <c r="B393" t="n">
-        <v>0.005877602577128164</v>
+        <v>0.005147414836433991</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="B394" t="n">
-        <v>0.00510911087218599</v>
+        <v>-0.003646826914974488</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B395" t="n">
-        <v>-0.003614982773123786</v>
+        <v>0.004451137466460803</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B396" t="n">
-        <v>0.004470610575062725</v>
+        <v>0.003609845112768604</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="B397" t="n">
-        <v>0.003635772276662176</v>
+        <v>-0.001028229162751828</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>45359</v>
+        <v>45362</v>
       </c>
       <c r="B398" t="n">
-        <v>-0.001045958998110811</v>
+        <v>-0.001976952106859352</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>45362</v>
+        <v>45363</v>
       </c>
       <c r="B399" t="n">
-        <v>-0.00191028055003292</v>
+        <v>0.004803936680015192</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B400" t="n">
-        <v>0.004825718959999642</v>
+        <v>6.242347552445904e-05</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B401" t="n">
-        <v>9.115678939128856e-05</v>
+        <v>-0.001233579088200491</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B402" t="n">
-        <v>-0.001277044390919658</v>
+        <v>-0.002338324052014374</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>45366</v>
+        <v>45370</v>
       </c>
       <c r="B403" t="n">
-        <v>-0.002283960396340586</v>
+        <v>0.001817681423958944</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B404" t="n">
-        <v>0.001833124101860197</v>
+        <v>0.00225897709878898</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B405" t="n">
-        <v>0.002251545191338074</v>
+        <v>0.01009184545955698</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B406" t="n">
-        <v>0.01003658116397065</v>
+        <v>0.000424941039190482</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B407" t="n">
-        <v>0.0004341037794967527</v>
+        <v>-0.001310027563222254</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B408" t="n">
-        <v>-0.001277658947281759</v>
+        <v>0.001455621308200271</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B409" t="n">
-        <v>0.001449391770395159</v>
+        <v>0.0006620502805356272</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B410" t="n">
-        <v>0.0006758952565430896</v>
+        <v>0.003399545802037247</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>45379</v>
+        <v>45384</v>
       </c>
       <c r="B411" t="n">
-        <v>0.003399134454181749</v>
+        <v>0.001070373278290457</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B412" t="n">
-        <v>0.0009392093805684113</v>
+        <v>0.002612579727142861</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B413" t="n">
-        <v>0.002615610849556536</v>
+        <v>-0.001141545705928365</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>45387</v>
+        <v>45390</v>
       </c>
       <c r="B414" t="n">
-        <v>-0.001180098876138974</v>
+        <v>0.0008428937215308845</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="B415" t="n">
-        <v>0.0008017651096300706</v>
+        <v>-0.002295502793811349</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B416" t="n">
-        <v>-0.002341572736006723</v>
+        <v>0.002385925659789812</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>45392</v>
+        <v>45393</v>
       </c>
       <c r="B417" t="n">
-        <v>0.002372922532506284</v>
+        <v>0.001416563375436881</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B418" t="n">
-        <v>0.001380865821677392</v>
+        <v>0.006509785941169287</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>45394</v>
+        <v>45397</v>
       </c>
       <c r="B419" t="n">
-        <v>0.006544967696699012</v>
+        <v>-0.005215606473982268</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>45397</v>
+        <v>45398</v>
       </c>
       <c r="B420" t="n">
-        <v>-0.005189174515890941</v>
+        <v>-0.002982798352641643</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>45398</v>
+        <v>45399</v>
       </c>
       <c r="B421" t="n">
-        <v>-0.002968502054876875</v>
+        <v>-0.001889518195584383</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>45399</v>
+        <v>45400</v>
       </c>
       <c r="B422" t="n">
-        <v>-0.001878717673847725</v>
+        <v>-0.0002775767550171955</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="B423" t="n">
-        <v>-0.0002947375233113484</v>
+        <v>0.0006858312509962204</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>45401</v>
+        <v>45404</v>
       </c>
       <c r="B424" t="n">
-        <v>0.0007682007283433393</v>
+        <v>0.0005859919912336944</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="B425" t="n">
-        <v>0.0005658844863615342</v>
+        <v>0.002137913338222284</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="B426" t="n">
-        <v>0.002152730776664465</v>
+        <v>0.0002296489014915086</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="B427" t="n">
-        <v>0.0001603782005540583</v>
+        <v>0.002258142193062759</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="B428" t="n">
-        <v>0.002259142124307681</v>
+        <v>-0.001865332147141032</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="B429" t="n">
-        <v>-0.001905109591422139</v>
+        <v>-0.005015203251451911</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>45412</v>
+        <v>45414</v>
       </c>
       <c r="B430" t="n">
-        <v>-0.005031704544811965</v>
+        <v>-0.001085764223449578</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="B431" t="n">
-        <v>-0.001061702597673774</v>
+        <v>0.004445904557489828</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>45415</v>
+        <v>45419</v>
       </c>
       <c r="B432" t="n">
-        <v>0.004455922169001119</v>
+        <v>0.009457121160627134</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="B433" t="n">
-        <v>0.009492196817018338</v>
+        <v>0.002776224883377932</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>45420</v>
+        <v>45422</v>
       </c>
       <c r="B434" t="n">
-        <v>0.002788534037050637</v>
+        <v>0.007916350152791572</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>45422</v>
+        <v>45425</v>
       </c>
       <c r="B435" t="n">
-        <v>0.007910139533701432</v>
+        <v>-0.002899632775647158</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>45425</v>
+        <v>45426</v>
       </c>
       <c r="B436" t="n">
-        <v>-0.002916447658400123</v>
+        <v>0.001778036035106547</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>45426</v>
+        <v>45428</v>
       </c>
       <c r="B437" t="n">
-        <v>0.001753490510823968</v>
+        <v>0.00699590552159062</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>45428</v>
+        <v>45429</v>
       </c>
       <c r="B438" t="n">
-        <v>0.007002658816719576</v>
+        <v>-0.0003261029856076261</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>45429</v>
+        <v>45433</v>
       </c>
       <c r="B439" t="n">
-        <v>-0.0003199113980626985</v>
+        <v>0.003101972818745915</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>45433</v>
+        <v>45434</v>
       </c>
       <c r="B440" t="n">
-        <v>0.003132857046363454</v>
+        <v>-0.004185708472077993</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="B441" t="n">
-        <v>-0.004220591356089059</v>
+        <v>-0.003682307410817061</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="B442" t="n">
-        <v>-0.003672906386432094</v>
+        <v>-0.002809355282999585</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>45436</v>
+        <v>45440</v>
       </c>
       <c r="B443" t="n">
-        <v>-0.002804819338912162</v>
+        <v>0.0008795781228564906</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>45440</v>
+        <v>45441</v>
       </c>
       <c r="B444" t="n">
-        <v>0.0008336350810272695</v>
+        <v>-0.004347942002224903</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="B445" t="n">
-        <v>-0.004353097547955969</v>
+        <v>-0.001798692461066503</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="B446" t="n">
-        <v>-0.001718411819904924</v>
+        <v>-0.001674293832720384</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>45443</v>
+        <v>45447</v>
       </c>
       <c r="B447" t="n">
-        <v>-0.001635453789918934</v>
+        <v>0.002097513602031914</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="B448" t="n">
-        <v>0.00216913411884883</v>
+        <v>0.009141036557538148</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>45448</v>
+        <v>45449</v>
       </c>
       <c r="B449" t="n">
-        <v>0.009154554567740943</v>
+        <v>0.004405561195971784</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>45449</v>
+        <v>45450</v>
       </c>
       <c r="B450" t="n">
-        <v>0.004373391960375533</v>
+        <v>-0.003958512542239053</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>45450</v>
+        <v>45454</v>
       </c>
       <c r="B451" t="n">
-        <v>-0.004003798253233862</v>
+        <v>-0.003901828242622121</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="B452" t="n">
-        <v>-0.003904412632351095</v>
+        <v>0.006148633367832678</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>45455</v>
+        <v>45456</v>
       </c>
       <c r="B453" t="n">
-        <v>0.006170171856891187</v>
+        <v>-0.002282948358837408</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>45456</v>
+        <v>45457</v>
       </c>
       <c r="B454" t="n">
-        <v>-0.002326163502532509</v>
+        <v>0.004472380971759342</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>45457</v>
+        <v>45460</v>
       </c>
       <c r="B455" t="n">
-        <v>0.004417742003583647</v>
+        <v>0.0005015810574759751</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="B456" t="n">
-        <v>0.0004995797890128418</v>
+        <v>0.005501459584780768</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>45461</v>
+        <v>45463</v>
       </c>
       <c r="B457" t="n">
-        <v>0.005487241530422914</v>
+        <v>0.006535297641990207</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>45463</v>
+        <v>45464</v>
       </c>
       <c r="B458" t="n">
-        <v>0.006474466595657857</v>
+        <v>-0.004288561243872989</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>45464</v>
+        <v>45467</v>
       </c>
       <c r="B459" t="n">
-        <v>-0.004273316587930701</v>
+        <v>-0.0002649724249348466</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>45467</v>
+        <v>45468</v>
       </c>
       <c r="B460" t="n">
-        <v>-0.0002057210694127445</v>
+        <v>-0.001333371719520809</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>45468</v>
+        <v>45469</v>
       </c>
       <c r="B461" t="n">
-        <v>-0.001392735157045676</v>
+        <v>-0.001359829731487116</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="B462" t="n">
-        <v>-0.001362813245236714</v>
+        <v>0.001375086871958222</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>45470</v>
+        <v>45471</v>
       </c>
       <c r="B463" t="n">
-        <v>0.001360313980088499</v>
+        <v>0.002488617980591871</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>45471</v>
+        <v>45475</v>
       </c>
       <c r="B464" t="n">
-        <v>0.00242570135483922</v>
+        <v>-0.002470932508239751</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>45475</v>
+        <v>45476</v>
       </c>
       <c r="B465" t="n">
-        <v>-0.002449472223458858</v>
+        <v>0.003886716558011125</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>45476</v>
+        <v>45478</v>
       </c>
       <c r="B466" t="n">
-        <v>0.00388410179699978</v>
+        <v>0.002904839943880053</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>45478</v>
+        <v>45481</v>
       </c>
       <c r="B467" t="n">
-        <v>0.002892565436958371</v>
+        <v>-0.00117825911366592</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>45481</v>
+        <v>45482</v>
       </c>
       <c r="B468" t="n">
-        <v>-0.001140664845484448</v>
+        <v>-0.0002166439394372953</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>45482</v>
+        <v>45483</v>
       </c>
       <c r="B469" t="n">
-        <v>-0.0002211793218411434</v>
+        <v>0.003140275154183459</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>45483</v>
+        <v>45484</v>
       </c>
       <c r="B470" t="n">
-        <v>0.003180454444149779</v>
+        <v>0.001631440392755193</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>45484</v>
+        <v>45485</v>
       </c>
       <c r="B471" t="n">
-        <v>0.001636897923685689</v>
+        <v>0.000426754852497273</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>45485</v>
+        <v>45488</v>
       </c>
       <c r="B472" t="n">
-        <v>0.0004867575410388123</v>
+        <v>0.0005900412119231882</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>45488</v>
+        <v>45489</v>
       </c>
       <c r="B473" t="n">
-        <v>0.000562538958289048</v>
+        <v>0.002429168151937845</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>45489</v>
+        <v>45490</v>
       </c>
       <c r="B474" t="n">
-        <v>0.00244275184320331</v>
+        <v>-0.004984877025426243</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>45490</v>
+        <v>45491</v>
       </c>
       <c r="B475" t="n">
-        <v>-0.004886083276211794</v>
+        <v>-0.000823333042854462</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>45491</v>
+        <v>45492</v>
       </c>
       <c r="B476" t="n">
-        <v>-0.0008413610916270327</v>
+        <v>-0.006701648951073112</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>45492</v>
+        <v>45495</v>
       </c>
       <c r="B477" t="n">
-        <v>-0.006639009265777592</v>
+        <v>0.001329997215559482</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>45495</v>
+        <v>45496</v>
       </c>
       <c r="B478" t="n">
-        <v>0.001377978977058404</v>
+        <v>0.003802521232682322</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>45496</v>
+        <v>45497</v>
       </c>
       <c r="B479" t="n">
-        <v>0.003767582600602882</v>
+        <v>-0.005838281501783438</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="B480" t="n">
-        <v>-0.005813058578657</v>
+        <v>-0.004149693070965481</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>45498</v>
+        <v>45499</v>
       </c>
       <c r="B481" t="n">
-        <v>-0.004038640040786632</v>
+        <v>0.00516675650600038</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>45499</v>
+        <v>45502</v>
       </c>
       <c r="B482" t="n">
-        <v>0.005130474871543275</v>
+        <v>-0.0007788216329421002</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>45502</v>
+        <v>45503</v>
       </c>
       <c r="B483" t="n">
-        <v>-0.0008234437750304649</v>
+        <v>0.0008446077596589666</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>45503</v>
+        <v>45504</v>
       </c>
       <c r="B484" t="n">
-        <v>0.0008953819168512058</v>
+        <v>0.009005946316652517</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>45504</v>
+        <v>45505</v>
       </c>
       <c r="B485" t="n">
-        <v>0.008961328066988445</v>
+        <v>0.0007418902023735344</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>45505</v>
+        <v>45506</v>
       </c>
       <c r="B486" t="n">
-        <v>0.000685790664898663</v>
+        <v>-0.01319727380006225</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>45506</v>
+        <v>45510</v>
       </c>
       <c r="B487" t="n">
-        <v>-0.01307395040491198</v>
+        <v>-0.01033997120526202</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>45510</v>
+        <v>45511</v>
       </c>
       <c r="B488" t="n">
-        <v>-0.01025428955703654</v>
+        <v>0.01037002704686427</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>45511</v>
+        <v>45512</v>
       </c>
       <c r="B489" t="n">
-        <v>0.01031550445113312</v>
+        <v>-0.001494161233156625</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>45512</v>
+        <v>45513</v>
       </c>
       <c r="B490" t="n">
-        <v>-0.001474087913202222</v>
+        <v>0.00354000027623284</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>45513</v>
+        <v>45516</v>
       </c>
       <c r="B491" t="n">
-        <v>0.00349288433775558</v>
+        <v>0.004866766449544859</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45516</v>
+        <v>45517</v>
       </c>
       <c r="B492" t="n">
-        <v>0.004846333735267934</v>
+        <v>0.004827040281499427</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45517</v>
+        <v>45518</v>
       </c>
       <c r="B493" t="n">
-        <v>0.004833243391687114</v>
+        <v>0.003134819783077529</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45518</v>
+        <v>45520</v>
       </c>
       <c r="B494" t="n">
-        <v>0.003174577611481115</v>
+        <v>0.008300541734319706</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="B495" t="n">
-        <v>0.008279360185737071</v>
+        <v>0.002938020494627901</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45523</v>
+        <v>45524</v>
       </c>
       <c r="B496" t="n">
-        <v>0.002940156081378551</v>
+        <v>-8.53214446986346e-05</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45524</v>
+        <v>45525</v>
       </c>
       <c r="B497" t="n">
-        <v>-0.0001031717756620187</v>
+        <v>0.0001829778138883215</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45525</v>
+        <v>45526</v>
       </c>
       <c r="B498" t="n">
-        <v>0.0002275966996681997</v>
+        <v>-0.00333461848751637</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45526</v>
+        <v>45527</v>
       </c>
       <c r="B499" t="n">
-        <v>-0.003310007690958967</v>
+        <v>0.0005631341852212592</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45527</v>
+        <v>45531</v>
       </c>
       <c r="B500" t="n">
-        <v>0.0005865015367250196</v>
+        <v>-0.0008938936722280526</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45531</v>
+        <v>45532</v>
       </c>
       <c r="B501" t="n">
-        <v>-0.0008697877804364385</v>
+        <v>-0.0002323293928798392</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45532</v>
+        <v>45533</v>
       </c>
       <c r="B502" t="n">
-        <v>-0.0001928163467117351</v>
+        <v>0.005081490044756086</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45533</v>
+        <v>45534</v>
       </c>
       <c r="B503" t="n">
-        <v>0.005099829847064299</v>
+        <v>-0.001926702540659837</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>45534</v>
+        <v>45538</v>
       </c>
       <c r="B504" t="n">
-        <v>-0.001935034165132447</v>
+        <v>-0.003553886622208484</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>45538</v>
+        <v>45539</v>
       </c>
       <c r="B505" t="n">
-        <v>-0.003532339391769683</v>
+        <v>-0.005311548452762997</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>45539</v>
+        <v>45540</v>
       </c>
       <c r="B506" t="n">
-        <v>-0.005260364192144749</v>
+        <v>-0.00164563514855656</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>45540</v>
+        <v>45541</v>
       </c>
       <c r="B507" t="n">
-        <v>-0.00165039669405717</v>
+        <v>-0.004775852182995415</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>45541</v>
+        <v>45544</v>
       </c>
       <c r="B508" t="n">
-        <v>-0.004770623944893618</v>
+        <v>0.00445902419655658</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>45544</v>
+        <v>45545</v>
       </c>
       <c r="B509" t="n">
-        <v>0.004541821513127965</v>
+        <v>0.003002011832041715</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45545</v>
+        <v>45546</v>
       </c>
       <c r="B510" t="n">
-        <v>0.002999443629449814</v>
+        <v>-0.001113162003891149</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45546</v>
+        <v>45547</v>
       </c>
       <c r="B511" t="n">
-        <v>-0.001080084299340534</v>
+        <v>0.01060897122992191</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45547</v>
+        <v>45548</v>
       </c>
       <c r="B512" t="n">
-        <v>0.01054112654765718</v>
+        <v>0.004726417865104113</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45548</v>
+        <v>45551</v>
       </c>
       <c r="B513" t="n">
-        <v>0.004740483864405828</v>
+        <v>-0.002674672246436909</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45551</v>
+        <v>45552</v>
       </c>
       <c r="B514" t="n">
-        <v>-0.002691656905990922</v>
+        <v>0.001262340848467873</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45552</v>
+        <v>45554</v>
       </c>
       <c r="B515" t="n">
-        <v>0.00126553075850804</v>
+        <v>-7.047757172637739e-05</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45554</v>
+        <v>45555</v>
       </c>
       <c r="B516" t="n">
-        <v>-0.0001278105726843946</v>
+        <v>-0.00148383045238319</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="B517" t="n">
-        <v>-0.001566716944025191</v>
+        <v>0.001232495197625818</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45558</v>
+        <v>45559</v>
       </c>
       <c r="B518" t="n">
-        <v>0.001272989784237238</v>
+        <v>0.001629013282200443</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45559</v>
+        <v>45560</v>
       </c>
       <c r="B519" t="n">
-        <v>0.001505978125039269</v>
+        <v>0.003860635443942525</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45560</v>
+        <v>45561</v>
       </c>
       <c r="B520" t="n">
-        <v>0.003859109798137738</v>
+        <v>0.002523778617471845</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45561</v>
+        <v>45562</v>
       </c>
       <c r="B521" t="n">
-        <v>0.002384254455602839</v>
+        <v>-0.0008969457559279035</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45562</v>
+        <v>45565</v>
       </c>
       <c r="B522" t="n">
-        <v>-0.0008881694477166566</v>
+        <v>-0.003844296391739745</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>45565</v>
+        <v>45567</v>
       </c>
       <c r="B523" t="n">
-        <v>-0.003901026958827148</v>
+        <v>0.003788918483239668</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45567</v>
+        <v>45568</v>
       </c>
       <c r="B524" t="n">
-        <v>0.003673548529442536</v>
+        <v>0.003584096235841763</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45568</v>
+        <v>45569</v>
       </c>
       <c r="B525" t="n">
-        <v>0.003622135956835677</v>
+        <v>0.001087424952264875</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45569</v>
+        <v>45572</v>
       </c>
       <c r="B526" t="n">
-        <v>0.001036086656922847</v>
+        <v>0.002731174419637153</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45572</v>
+        <v>45573</v>
       </c>
       <c r="B527" t="n">
-        <v>0.002663785549518289</v>
+        <v>-0.003839409484837693</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45573</v>
+        <v>45574</v>
       </c>
       <c r="B528" t="n">
-        <v>-0.003685243615121096</v>
+        <v>0.004241203649874974</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45574</v>
+        <v>45575</v>
       </c>
       <c r="B529" t="n">
-        <v>0.004316358083243815</v>
+        <v>0.00194618479088819</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45575</v>
+        <v>45579</v>
       </c>
       <c r="B530" t="n">
-        <v>0.001894442747837626</v>
+        <v>0.007962744989237104</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45579</v>
+        <v>45580</v>
       </c>
       <c r="B531" t="n">
-        <v>0.007963374813184182</v>
+        <v>-0.00132551901180564</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45580</v>
+        <v>45581</v>
       </c>
       <c r="B532" t="n">
-        <v>-0.001261291760579987</v>
+        <v>0.002566678614817749</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45581</v>
+        <v>45582</v>
       </c>
       <c r="B533" t="n">
-        <v>0.002582740226640403</v>
+        <v>0.004762412323072564</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45582</v>
+        <v>45583</v>
       </c>
       <c r="B534" t="n">
-        <v>0.004783020662305293</v>
+        <v>0.001300355438093403</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45583</v>
+        <v>45586</v>
       </c>
       <c r="B535" t="n">
-        <v>0.001253034327859579</v>
+        <v>-0.001213022260886927</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45586</v>
+        <v>45587</v>
       </c>
       <c r="B536" t="n">
-        <v>-0.001193246990238558</v>
+        <v>0.001081573972673773</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45587</v>
+        <v>45588</v>
       </c>
       <c r="B537" t="n">
-        <v>0.001067233346531897</v>
+        <v>-0.002744210081588141</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45588</v>
+        <v>45589</v>
       </c>
       <c r="B538" t="n">
-        <v>-0.002762916459103627</v>
+        <v>0.0004950185827933628</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45589</v>
+        <v>45590</v>
       </c>
       <c r="B539" t="n">
-        <v>0.0005361204611009948</v>
+        <v>0.001703779509119027</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45590</v>
+        <v>45594</v>
       </c>
       <c r="B540" t="n">
-        <v>0.00167725574314681</v>
+        <v>0.0003871833386946274</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45594</v>
+        <v>45595</v>
       </c>
       <c r="B541" t="n">
-        <v>0.0003882377240104092</v>
+        <v>-0.002155688739652657</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45595</v>
+        <v>45596</v>
       </c>
       <c r="B542" t="n">
-        <v>-0.002107963029369138</v>
+        <v>-0.006968558697165495</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45596</v>
+        <v>45600</v>
       </c>
       <c r="B543" t="n">
-        <v>-0.006957786482871323</v>
+        <v>-0.0005407345370135869</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45600</v>
+        <v>45601</v>
       </c>
       <c r="B544" t="n">
-        <v>-0.0006185330971375966</v>
+        <v>0.0003738926268874118</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45601</v>
+        <v>45602</v>
       </c>
       <c r="B545" t="n">
-        <v>0.0003377797265195332</v>
+        <v>0.002175450682181752</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45602</v>
+        <v>45603</v>
       </c>
       <c r="B546" t="n">
-        <v>0.002117529974448583</v>
+        <v>0.003065629484352527</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45603</v>
+        <v>45604</v>
       </c>
       <c r="B547" t="n">
-        <v>0.003050388789673647</v>
+        <v>0.001488898734297903</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45604</v>
+        <v>45607</v>
       </c>
       <c r="B548" t="n">
-        <v>0.001547417033749295</v>
+        <v>-0.003117977805550715</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45607</v>
+        <v>45608</v>
       </c>
       <c r="B549" t="n">
-        <v>-0.003105997116193205</v>
+        <v>-0.001445529533638975</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="B550" t="n">
-        <v>-0.001400192091396684</v>
+        <v>-0.0002409146332791579</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="B551" t="n">
-        <v>-0.0002861837312956601</v>
+        <v>0.0002286763119791583</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="B552" t="n">
-        <v>0.0002663508504655317</v>
+        <v>-0.005227225495324608</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45611</v>
+        <v>45614</v>
       </c>
       <c r="B553" t="n">
-        <v>-0.005231060744299492</v>
+        <v>0.004677449245124682</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45614</v>
+        <v>45615</v>
       </c>
       <c r="B554" t="n">
-        <v>0.004646696594122245</v>
+        <v>-0.0001410436682455572</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45615</v>
+        <v>45616</v>
       </c>
       <c r="B555" t="n">
-        <v>-0.0001641888951527778</v>
+        <v>0.002438873336479982</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45616</v>
+        <v>45617</v>
       </c>
       <c r="B556" t="n">
-        <v>0.00240807854814995</v>
+        <v>0.00776895527765847</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45617</v>
+        <v>45618</v>
       </c>
       <c r="B557" t="n">
-        <v>0.007824376871173936</v>
+        <v>0.008765477512877646</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45618</v>
+        <v>45621</v>
       </c>
       <c r="B558" t="n">
-        <v>0.008805013599150948</v>
+        <v>-0.004965135011759844</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45621</v>
+        <v>45622</v>
       </c>
       <c r="B559" t="n">
-        <v>-0.004955054544347946</v>
+        <v>-0.0001245017384930194</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45622</v>
+        <v>45623</v>
       </c>
       <c r="B560" t="n">
-        <v>-0.0001331091888671517</v>
+        <v>-0.00373625735639973</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45623</v>
+        <v>45625</v>
       </c>
       <c r="B561" t="n">
-        <v>-0.003736690000726089</v>
+        <v>0.002494816957518368</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45625</v>
+        <v>45628</v>
       </c>
       <c r="B562" t="n">
-        <v>0.002562509279060811</v>
+        <v>0.002527982325546872</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="B563" t="n">
-        <v>0.002505896252847809</v>
+        <v>0.001739636938810555</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>45629</v>
+        <v>45630</v>
       </c>
       <c r="B564" t="n">
-        <v>0.001694941180544457</v>
+        <v>0.001585907115103588</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>45630</v>
+        <v>45631</v>
       </c>
       <c r="B565" t="n">
-        <v>0.001583334524704256</v>
+        <v>-0.001605053966079844</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45631</v>
+        <v>45632</v>
       </c>
       <c r="B566" t="n">
-        <v>-0.001542237946347925</v>
+        <v>-0.0001418686670377629</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="B567" t="n">
-        <v>-0.0001793331946822435</v>
+        <v>-0.001472575637459043</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45635</v>
+        <v>45636</v>
       </c>
       <c r="B568" t="n">
-        <v>-0.001547673695755703</v>
+        <v>-0.0008063165615190839</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="B569" t="n">
-        <v>-0.0008015356954125424</v>
+        <v>0.002800367076245269</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="B570" t="n">
-        <v>0.002776650016145131</v>
+        <v>-0.001153191686181663</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45638</v>
+        <v>45639</v>
       </c>
       <c r="B571" t="n">
-        <v>-0.001165728931708439</v>
+        <v>0.00042749880644648</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45639</v>
+        <v>45642</v>
       </c>
       <c r="B572" t="n">
-        <v>0.0004161222878224644</v>
+        <v>-0.002501826200309324</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B573" t="n">
-        <v>-0.002498667468886808</v>
+        <v>-0.005117892376493791</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B574" t="n">
-        <v>-0.005114354846609851</v>
+        <v>0.0006839771476112427</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B575" t="n">
-        <v>0.0006263204634788115</v>
+        <v>-0.006784333993863865</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B576" t="n">
-        <v>-0.006784625453518364</v>
+        <v>0.002684624222291611</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B577" t="n">
-        <v>0.002682353507636989</v>
+        <v>0.001333276582484215</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>45649</v>
+        <v>45653</v>
       </c>
       <c r="B578" t="n">
-        <v>0.00130066808162192</v>
+        <v>0.001812044982753514</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>45653</v>
+        <v>45656</v>
       </c>
       <c r="B579" t="n">
-        <v>0.001843554959177426</v>
+        <v>-0.003809974274666323</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>45656</v>
+        <v>45657</v>
       </c>
       <c r="B580" t="n">
-        <v>-0.003789854335036205</v>
+        <v>0.002528077287816666</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>45657</v>
+        <v>45659</v>
       </c>
       <c r="B581" t="n">
-        <v>0.002518839674919131</v>
+        <v>0.009656953801037876</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>45659</v>
+        <v>45660</v>
       </c>
       <c r="B582" t="n">
-        <v>0.009715928080327396</v>
+        <v>-0.001685928837489283</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45660</v>
+        <v>45663</v>
       </c>
       <c r="B583" t="n">
-        <v>-0.001736365502493109</v>
+        <v>0.001427212343598952</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>45663</v>
+        <v>45664</v>
       </c>
       <c r="B584" t="n">
-        <v>0.001449126264254122</v>
+        <v>-0.0009254267931346997</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>45664</v>
+        <v>45665</v>
       </c>
       <c r="B585" t="n">
-        <v>-0.0008824310871138801</v>
+        <v>0.004556865193040946</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B586" t="n">
-        <v>0.004568858737869545</v>
+        <v>0.0004402407856600107</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45667</v>
+        <v>45670</v>
       </c>
       <c r="B587" t="n">
-        <v>0.0004510040159250257</v>
+        <v>-0.003125745535923212</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="B588" t="n">
-        <v>-0.003122014636673196</v>
+        <v>0.002453675358365107</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B589" t="n">
-        <v>0.00242951177910664</v>
+        <v>0.005819874913886353</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B590" t="n">
-        <v>0.005862167691195569</v>
+        <v>0.005577227679997235</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B591" t="n">
-        <v>0.005524826323976329</v>
+        <v>0.005693274798700651</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>45674</v>
+        <v>45678</v>
       </c>
       <c r="B592" t="n">
-        <v>0.005732799871284349</v>
+        <v>-0.000559394348052258</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B593" t="n">
-        <v>-0.000591229683601937</v>
+        <v>0.00508152140488836</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>45679</v>
+        <v>45680</v>
       </c>
       <c r="B594" t="n">
-        <v>0.005123141245931329</v>
+        <v>-0.0008814691898304339</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B595" t="n">
-        <v>-0.0009212946138021955</v>
+        <v>-0.002918285738837934</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>45681</v>
+        <v>45692</v>
       </c>
       <c r="B596" t="n">
-        <v>-0.00294501318182373</v>
+        <v>0.004502902453130422</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>45692</v>
+        <v>45693</v>
       </c>
       <c r="B597" t="n">
-        <v>0.004515243155464088</v>
+        <v>0.003251241673768306</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>45693</v>
+        <v>45694</v>
       </c>
       <c r="B598" t="n">
-        <v>0.003342886316382509</v>
+        <v>0.005673782240082917</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>45694</v>
+        <v>45695</v>
       </c>
       <c r="B599" t="n">
-        <v>0.005606548008444644</v>
+        <v>0.0006353049444599013</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>45695</v>
+        <v>45698</v>
       </c>
       <c r="B600" t="n">
-        <v>0.0005838845797256909</v>
+        <v>0.006930608417965106</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>45698</v>
+        <v>45699</v>
       </c>
       <c r="B601" t="n">
-        <v>0.006956619261451435</v>
+        <v>0.00028399989304603</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>45699</v>
+        <v>45700</v>
       </c>
       <c r="B602" t="n">
-        <v>0.000312110428431696</v>
+        <v>-0.001586301310401633</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>45700</v>
+        <v>45701</v>
       </c>
       <c r="B603" t="n">
-        <v>-0.001586809801990899</v>
+        <v>0.002849037356905448</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>45701</v>
+        <v>45702</v>
       </c>
       <c r="B604" t="n">
-        <v>0.002915686439774282</v>
+        <v>-0.00424516270818449</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>45702</v>
+        <v>45706</v>
       </c>
       <c r="B605" t="n">
-        <v>-0.004285986327074946</v>
+        <v>0.004675257315613275</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>45706</v>
+        <v>45707</v>
       </c>
       <c r="B606" t="n">
-        <v>0.004630931877084821</v>
+        <v>-0.0006973549374829128</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>45707</v>
+        <v>45708</v>
       </c>
       <c r="B607" t="n">
-        <v>-0.0007491618488913286</v>
+        <v>-0.001317509732195841</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>45708</v>
+        <v>45709</v>
       </c>
       <c r="B608" t="n">
-        <v>-0.001316578944387582</v>
+        <v>-1.281952971335853e-05</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>45709</v>
+        <v>45712</v>
       </c>
       <c r="B609" t="n">
-        <v>-3.521953251621349e-05</v>
+        <v>-0.001445774889092006</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>45712</v>
+        <v>45713</v>
       </c>
       <c r="B610" t="n">
-        <v>-0.001383514096016909</v>
+        <v>-0.005624551823279571</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>45713</v>
+        <v>45714</v>
       </c>
       <c r="B611" t="n">
-        <v>-0.005527974292792165</v>
+        <v>0.003176828705620473</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>45714</v>
+        <v>45715</v>
       </c>
       <c r="B612" t="n">
-        <v>0.00312674891497912</v>
+        <v>-0.004281164236034181</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>45715</v>
+        <v>45716</v>
       </c>
       <c r="B613" t="n">
-        <v>-0.004290807927673993</v>
+        <v>-0.006305589160553502</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>45716</v>
+        <v>45719</v>
       </c>
       <c r="B614" t="n">
-        <v>-0.0061706756823496</v>
+        <v>0.005665339225013489</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>45719</v>
+        <v>45720</v>
       </c>
       <c r="B615" t="n">
-        <v>0.005722272263486347</v>
+        <v>-0.007663046625859269</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>45720</v>
+        <v>45721</v>
       </c>
       <c r="B616" t="n">
-        <v>-0.00762882137186653</v>
+        <v>-0.001145534793307521</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>45721</v>
+        <v>45722</v>
       </c>
       <c r="B617" t="n">
-        <v>-0.00120144971059305</v>
+        <v>-0.0001650958740463547</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>45722</v>
+        <v>45723</v>
       </c>
       <c r="B618" t="n">
-        <v>-0.0002608084545950124</v>
+        <v>-0.003192544762600003</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>45723</v>
+        <v>45726</v>
       </c>
       <c r="B619" t="n">
-        <v>-0.003131795145899901</v>
+        <v>-0.003167104467579012</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>45726</v>
+        <v>45727</v>
       </c>
       <c r="B620" t="n">
-        <v>-0.003087244934251948</v>
+        <v>-0.00744061211464886</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>45727</v>
+        <v>45728</v>
       </c>
       <c r="B621" t="n">
-        <v>-0.007493180174047358</v>
+        <v>0.003301863169605668</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>45728</v>
+        <v>45729</v>
       </c>
       <c r="B622" t="n">
-        <v>0.003306000338389728</v>
+        <v>-2.163168297390251e-05</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>45729</v>
+        <v>45730</v>
       </c>
       <c r="B623" t="n">
-        <v>-8.378048264432673e-06</v>
+        <v>0.007366778734719148</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>45730</v>
+        <v>45734</v>
       </c>
       <c r="B624" t="n">
-        <v>0.007339125242182677</v>
+        <v>0.006530230876922173</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>45734</v>
+        <v>45735</v>
       </c>
       <c r="B625" t="n">
-        <v>0.006452528056738858</v>
+        <v>0.001442659376139433</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>45735</v>
+        <v>45736</v>
       </c>
       <c r="B626" t="n">
-        <v>0.001438217391160055</v>
+        <v>-0.001592891201201691</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>45736</v>
+        <v>45737</v>
       </c>
       <c r="B627" t="n">
-        <v>-0.001566628255298631</v>
+        <v>-0.001529548601897301</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>45737</v>
+        <v>45740</v>
       </c>
       <c r="B628" t="n">
-        <v>-0.001513440167598828</v>
+        <v>0.003504335123013591</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>45740</v>
+        <v>45741</v>
       </c>
       <c r="B629" t="n">
-        <v>0.003437397527818154</v>
+        <v>0.0005743561159893421</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>45741</v>
+        <v>45742</v>
       </c>
       <c r="B630" t="n">
-        <v>0.0006201578852800771</v>
+        <v>-0.001529766859995581</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>45742</v>
+        <v>45743</v>
       </c>
       <c r="B631" t="n">
-        <v>-0.001584648114122233</v>
+        <v>0.0002536632720842337</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>45743</v>
+        <v>45744</v>
       </c>
       <c r="B632" t="n">
-        <v>0.0002983334327712375</v>
+        <v>-0.001897598156306942</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>45744</v>
+        <v>45747</v>
       </c>
       <c r="B633" t="n">
-        <v>-0.001849445371777396</v>
+        <v>-0.001343599222005947</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>45747</v>
+        <v>45748</v>
       </c>
       <c r="B634" t="n">
-        <v>-0.001282087344501812</v>
+        <v>0.006893051443576159</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>45748</v>
+        <v>45749</v>
       </c>
       <c r="B635" t="n">
-        <v>0.006855501860033305</v>
+        <v>-0.0005796892609714581</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>45749</v>
+        <v>45750</v>
       </c>
       <c r="B636" t="n">
-        <v>-0.0006010019852525</v>
+        <v>-0.01663930326510508</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>45750</v>
+        <v>45754</v>
       </c>
       <c r="B637" t="n">
-        <v>-0.01646294909989656</v>
+        <v>-0.04279358306478981</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>45754</v>
+        <v>45755</v>
       </c>
       <c r="B638" t="n">
-        <v>-0.04281036571191117</v>
+        <v>0.01731863615533862</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>45755</v>
+        <v>45756</v>
       </c>
       <c r="B639" t="n">
-        <v>0.01742417228801783</v>
+        <v>-0.01102438481278325</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>45756</v>
+        <v>45757</v>
       </c>
       <c r="B640" t="n">
-        <v>-0.01106480470487394</v>
+        <v>0.02392600359314117</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>45757</v>
+        <v>45758</v>
       </c>
       <c r="B641" t="n">
-        <v>0.02390997538748416</v>
+        <v>0.005047052001878089</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>45758</v>
+        <v>45761</v>
       </c>
       <c r="B642" t="n">
-        <v>0.005106979526056914</v>
+        <v>0.00702911269531417</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>45761</v>
+        <v>45762</v>
       </c>
       <c r="B643" t="n">
-        <v>0.007051430319576293</v>
+        <v>0.003542774275546637</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>45762</v>
+        <v>45763</v>
       </c>
       <c r="B644" t="n">
-        <v>0.003558231384025809</v>
+        <v>0.003831430327172375</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>45763</v>
+        <v>45764</v>
       </c>
       <c r="B645" t="n">
-        <v>0.003918672195220373</v>
+        <v>-0.006767585457553929</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>45764</v>
+        <v>45769</v>
       </c>
       <c r="B646" t="n">
-        <v>-0.006829851195426775</v>
+        <v>0.005373339537839565</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>45769</v>
+        <v>45770</v>
       </c>
       <c r="B647" t="n">
-        <v>0.005426893231153467</v>
+        <v>0.002595444747972057</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B648" t="n">
-        <v>0.002467680820934295</v>
+        <v>0.006092642267879876</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>45771</v>
+        <v>45772</v>
       </c>
       <c r="B649" t="n">
-        <v>0.006137844504913885</v>
+        <v>-0.003081204438927098</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>45772</v>
+        <v>45775</v>
       </c>
       <c r="B650" t="n">
-        <v>-0.003087370015337851</v>
+        <v>0.002382068352445345</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
-        <v>45775</v>
+        <v>45776</v>
       </c>
       <c r="B651" t="n">
-        <v>0.00236498880003258</v>
+        <v>0.003463606237552243</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
-        <v>45776</v>
+        <v>45777</v>
       </c>
       <c r="B652" t="n">
-        <v>0.003497821515428998</v>
+        <v>0.00401084960662266</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>45777</v>
+        <v>45779</v>
       </c>
       <c r="B653" t="n">
-        <v>0.0040366592904558</v>
+        <v>0.009426045445182527</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
-        <v>45779</v>
+        <v>45783</v>
       </c>
       <c r="B654" t="n">
-        <v>0.009386789048825339</v>
+        <v>0.006492066973834833</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
-        <v>45783</v>
+        <v>45784</v>
       </c>
       <c r="B655" t="n">
-        <v>0.006500676156627146</v>
+        <v>-0.001366194461585101</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
-        <v>45784</v>
+        <v>45785</v>
       </c>
       <c r="B656" t="n">
-        <v>-0.001390866550658807</v>
+        <v>0.0006800142175383429</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
-        <v>45785</v>
+        <v>45789</v>
       </c>
       <c r="B657" t="n">
-        <v>0.000616732196864291</v>
+        <v>0.00165147775878613</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
-        <v>45789</v>
+        <v>45790</v>
       </c>
       <c r="B658" t="n">
-        <v>0.001392044880256083</v>
+        <v>0.001413635364952583</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
-        <v>45790</v>
+        <v>45791</v>
       </c>
       <c r="B659" t="n">
-        <v>0.001474007905811574</v>
+        <v>-0.005164680734584412</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
-        <v>45791</v>
+        <v>45792</v>
       </c>
       <c r="B660" t="n">
-        <v>-0.005200621834924981</v>
+        <v>0.007719730585606542</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
-        <v>45792</v>
+        <v>45793</v>
       </c>
       <c r="B661" t="n">
-        <v>0.00778339359210194</v>
+        <v>0.001598616850218569</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
-        <v>45793</v>
+        <v>45796</v>
       </c>
       <c r="B662" t="n">
-        <v>0.001599791937695214</v>
+        <v>0.001412774086511735</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
-        <v>45796</v>
+        <v>45797</v>
       </c>
       <c r="B663" t="n">
-        <v>0.001539515705869379</v>
+        <v>0.005134981600260677</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
-        <v>45797</v>
+        <v>45798</v>
       </c>
       <c r="B664" t="n">
-        <v>0.005131990965496712</v>
+        <v>0.0009660292146299065</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
-        <v>45798</v>
+        <v>45799</v>
       </c>
       <c r="B665" t="n">
-        <v>0.0009758250313415986</v>
+        <v>-0.006674650427787305</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
-        <v>45799</v>
+        <v>45800</v>
       </c>
       <c r="B666" t="n">
-        <v>-0.006685549361508477</v>
+        <v>-0.002048333242987293</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
-        <v>45800</v>
+        <v>45804</v>
       </c>
       <c r="B667" t="n">
-        <v>-0.002051630893765637</v>
+        <v>0.001978521800678789</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
-        <v>45804</v>
+        <v>45805</v>
       </c>
       <c r="B668" t="n">
-        <v>0.002078892590411742</v>
+        <v>-0.0001621373681498929</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
-        <v>45805</v>
+        <v>45807</v>
       </c>
       <c r="B669" t="n">
-        <v>-0.0002276936983598885</v>
+        <v>-0.0002665465572641062</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
-        <v>45807</v>
+        <v>45811</v>
       </c>
       <c r="B670" t="n">
-        <v>-0.0002014358873520556</v>
+        <v>0.005004843955786337</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
-        <v>45811</v>
+        <v>45812</v>
       </c>
       <c r="B671" t="n">
-        <v>0.004977647592252471</v>
-      </c>
-    </row>
-    <row r="672">
-      <c r="A672" s="2" t="n">
-        <v>45812</v>
-      </c>
-      <c r="B672" t="n">
-        <v>0.003317998430219253</v>
+        <v>0.003333426188995292</v>
       </c>
     </row>
   </sheetData>
